--- a/outputs/SORs/SOR Testing_Commercial Systems.xlsx
+++ b/outputs/SORs/SOR Testing_Commercial Systems.xlsx
@@ -48,7 +48,7 @@
     <t xml:space="preserve">cvd</t>
   </si>
   <si>
-    <t xml:space="preserve">ytd_value</t>
+    <t xml:space="preserve">ytd</t>
   </si>
   <si>
     <t xml:space="preserve">data_source</t>
@@ -657,7 +657,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -710,7 +712,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1"/>
+      <c r="E3" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -763,7 +767,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1"/>
+      <c r="E4" s="1" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -814,7 +820,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -950,7 +958,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10"/>
+      <c r="E2" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -995,7 +1005,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10"/>
+      <c r="E3" s="10" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1125,7 +1137,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1170,7 +1184,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11"/>
+      <c r="E3" s="11" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1300,7 +1316,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12"/>
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1351,7 +1369,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1402,7 +1422,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="12" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1453,7 +1475,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12"/>
+      <c r="E5" s="12" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1589,7 +1613,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1638,7 +1664,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13"/>
+      <c r="E3" s="13" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1772,7 +1800,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1823,7 +1853,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1874,7 +1906,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1959,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2061,7 +2097,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2110,7 +2148,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="15" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2159,7 +2199,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -2212,7 +2254,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="15" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2350,7 +2394,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2393,7 +2439,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="16" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2436,7 +2484,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="16" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -2481,7 +2531,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16"/>
+      <c r="E5" s="16" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2611,7 +2663,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2652,7 +2706,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="17" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2778,7 +2834,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="18"/>
+      <c r="E2" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2821,7 +2879,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="18"/>
+      <c r="E3" s="18" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2949,7 +3009,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="19" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3000,7 +3062,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="19" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3136,7 +3200,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3179,7 +3245,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3222,7 +3290,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2"/>
+      <c r="E4" s="2" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3279,7 +3349,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -3421,7 +3493,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="20"/>
+      <c r="E2" s="20" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3474,7 +3548,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20"/>
+      <c r="E3" s="20" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3612,7 +3688,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="21"/>
+      <c r="E2" s="21" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3667,7 +3745,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="21"/>
+      <c r="E3" s="21" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3807,7 +3887,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="22" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3858,7 +3940,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="22" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3994,7 +4078,9 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="23"/>
+      <c r="E2" s="23" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4045,7 +4131,9 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="23" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4181,7 +4269,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3"/>
+      <c r="E2" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4232,7 +4322,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4283,7 +4375,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="3" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4340,7 +4434,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3"/>
+      <c r="E5" s="3" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4482,7 +4578,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4533,7 +4631,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4584,7 +4684,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4629,7 +4731,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4759,7 +4863,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4810,7 +4916,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4861,7 +4969,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4918,7 +5028,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5060,7 +5172,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5109,7 +5223,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="6" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5243,7 +5359,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5294,7 +5412,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5345,7 +5465,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5398,7 +5520,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5536,7 +5660,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8"/>
+      <c r="E2" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5587,7 +5713,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5638,7 +5766,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8"/>
+      <c r="E4" s="8" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5695,7 +5825,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5837,7 +5969,9 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9"/>
+      <c r="E2" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5878,7 +6012,9 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9"/>
+      <c r="E3" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5919,7 +6055,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9"/>
+      <c r="E4" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5970,7 +6108,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9"/>
+      <c r="E5" s="9" t="n">
+        <v>0.0639</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_Commercial Systems.xlsx
+++ b/outputs/SORs/SOR Testing_Commercial Systems.xlsx
@@ -768,7 +768,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -821,7 +821,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1423,7 +1423,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1476,7 +1476,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="12" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -1907,7 +1907,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -1960,7 +1960,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="14" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2200,7 +2200,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2255,7 +2255,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2485,7 +2485,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -2532,7 +2532,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="16" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -2835,7 +2835,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -2880,7 +2880,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="18" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3010,7 +3010,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3063,7 +3063,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="19" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3291,7 +3291,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -3350,7 +3350,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -3494,7 +3494,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3549,7 +3549,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="20" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3689,7 +3689,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3746,7 +3746,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="21" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -3888,7 +3888,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -3941,7 +3941,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="22" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4079,7 +4079,7 @@
         <v>29</v>
       </c>
       <c r="E2" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F2" t="s">
         <v>27</v>
@@ -4132,7 +4132,7 @@
         <v>29</v>
       </c>
       <c r="E3" s="23" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F3" t="s">
         <v>28</v>
@@ -4376,7 +4376,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -4435,7 +4435,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="3" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -4685,7 +4685,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -4732,7 +4732,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -4970,7 +4970,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -5029,7 +5029,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -5466,7 +5466,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -5521,7 +5521,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="7" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -5767,7 +5767,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -5826,7 +5826,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="8" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>
@@ -6056,7 +6056,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F4" t="s">
         <v>27</v>
@@ -6109,7 +6109,7 @@
         <v>29</v>
       </c>
       <c r="E5" s="9" t="n">
-        <v>0.0639</v>
+        <v>0.0776</v>
       </c>
       <c r="F5" t="s">
         <v>28</v>

--- a/outputs/SORs/SOR Testing_Commercial Systems.xlsx
+++ b/outputs/SORs/SOR Testing_Commercial Systems.xlsx
@@ -657,9 +657,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="1"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -712,9 +710,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="1"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -767,9 +763,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="1" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="1"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -820,9 +814,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="1"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -958,9 +950,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="10"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1005,9 +995,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="10" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="10"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1137,9 +1125,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="11"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1184,9 +1170,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="11" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1316,9 +1300,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="12"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1369,9 +1351,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="12"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1422,9 +1402,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="12"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1475,9 +1453,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="12" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="12"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1613,9 +1589,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="13"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1664,9 +1638,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="13" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="13"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1800,9 +1772,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="14"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -1853,9 +1823,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="14" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="14"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -1906,9 +1874,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="14"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1959,9 +1925,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="14"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2097,9 +2061,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="15"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2148,9 +2110,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="15" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="15"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2199,9 +2159,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="15"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -2254,9 +2212,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="15" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="15"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2394,9 +2350,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="16"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2439,9 +2393,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="16" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="16"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2484,9 +2436,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="16" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="16"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -2531,9 +2481,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="16" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="16"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -2663,9 +2611,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="17"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2706,9 +2652,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="17" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="17"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -2834,9 +2778,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="18" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="18"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -2879,9 +2821,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="18" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="18"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3009,9 +2949,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="19" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="19"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3062,9 +3000,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="19" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="19"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3200,9 +3136,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3245,9 +3179,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3290,9 +3222,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -3349,9 +3279,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -3493,9 +3421,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="20" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="20"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3548,9 +3474,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="20"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3688,9 +3612,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="21" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="21"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3745,9 +3667,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="21" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="21"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -3887,9 +3807,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="22" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="22"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -3940,9 +3858,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="22" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="22"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4078,9 +3994,7 @@
       <c r="D2" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E2" s="23"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4131,9 +4045,7 @@
       <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="23" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E3" s="23"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4269,9 +4181,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="3"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4322,9 +4232,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="3"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4375,9 +4283,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="3"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4434,9 +4340,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="3"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4578,9 +4482,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="4"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4631,9 +4533,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="4"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4684,9 +4584,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="4"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -4731,9 +4629,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -4863,9 +4759,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="5"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -4916,9 +4810,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="5"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -4969,9 +4861,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="5" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5028,9 +4918,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="5" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5172,9 +5060,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="6"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5223,9 +5109,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="6"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5359,9 +5243,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="7"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5412,9 +5294,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="7" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="7"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5465,9 +5345,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="7"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5520,9 +5398,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="7" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="7"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5660,9 +5536,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="8"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -5713,9 +5587,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="8" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="8"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -5766,9 +5638,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="8" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="8"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -5825,9 +5695,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="8"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -5969,9 +5837,7 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E2" s="9"/>
       <c r="F2" t="s">
         <v>27</v>
       </c>
@@ -6012,9 +5878,7 @@
       <c r="D3" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="n">
-        <v>0</v>
-      </c>
+      <c r="E3" s="9"/>
       <c r="F3" t="s">
         <v>28</v>
       </c>
@@ -6055,9 +5919,7 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="9" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E4" s="9"/>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -6108,9 +5970,7 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="9" t="n">
-        <v>0.0776</v>
-      </c>
+      <c r="E5" s="9"/>
       <c r="F5" t="s">
         <v>28</v>
       </c>

--- a/outputs/SORs/SOR Testing_Commercial Systems.xlsx
+++ b/outputs/SORs/SOR Testing_Commercial Systems.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t xml:space="preserve">segment_function</t>
   </si>
@@ -163,6 +163,9 @@
   </si>
   <si>
     <t xml:space="preserve">Waldenburg Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commit/Forecast</t>
   </si>
   <si>
     <t xml:space="preserve">Yueyang China</t>
@@ -1874,7 +1877,9 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F4" t="s">
         <v>27</v>
       </c>
@@ -1925,7 +1930,9 @@
       <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="n">
+        <v>0</v>
+      </c>
       <c r="F5" t="s">
         <v>28</v>
       </c>
@@ -1961,6 +1968,77 @@
       <c r="V5" s="14"/>
       <c r="W5" s="14" t="n">
         <v>0.9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" s="14" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2056,7 +2134,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2105,7 +2183,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2154,7 +2232,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -2207,7 +2285,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -2345,7 +2423,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2388,7 +2466,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2431,7 +2509,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
         <v>29</v>
@@ -2476,7 +2554,7 @@
         <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
         <v>29</v>
@@ -2606,7 +2684,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
         <v>26</v>
@@ -2647,7 +2725,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
         <v>26</v>
@@ -2773,7 +2851,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2816,7 +2894,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -2944,7 +3022,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -2995,7 +3073,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3416,7 +3494,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3469,7 +3547,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3607,7 +3685,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3662,7 +3740,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3802,7 +3880,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -3853,7 +3931,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
@@ -3989,7 +4067,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -4040,7 +4118,7 @@
         <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
         <v>29</v>
